--- a/filer/diagram-mall.xlsx
+++ b/filer/diagram-mall.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542918ED-1675-40FC-A09D-BBBEB89B95D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="10440" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stapeldiagram 2 variabler" sheetId="3" r:id="rId1"/>
-    <sheet name="Liggande stapeldiagram Likert" sheetId="4" r:id="rId2"/>
-    <sheet name="Linjediagram tidsserie" sheetId="1" r:id="rId3"/>
-    <sheet name="Linjediagram 3 variabler" sheetId="5" r:id="rId4"/>
+    <sheet name="Paj" sheetId="5" r:id="rId1"/>
+    <sheet name="Stapel" sheetId="3" r:id="rId2"/>
+    <sheet name="Liggande stapel" sheetId="4" r:id="rId3"/>
+    <sheet name="Linje" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>År</t>
   </si>
@@ -40,12 +41,6 @@
   </si>
   <si>
     <t>Unga</t>
-  </si>
-  <si>
-    <t>Mellan</t>
-  </si>
-  <si>
-    <t>Antal</t>
   </si>
   <si>
     <t>Fastighetsskatt</t>
@@ -89,12 +84,111 @@
   <si>
     <t>Mycket tidningsläsning</t>
   </si>
+  <si>
+    <t>Totalt</t>
+  </si>
+  <si>
+    <t>Antal studenter</t>
+  </si>
+  <si>
+    <t>Variabler: år × antal studenter</t>
+  </si>
+  <si>
+    <t>Variabler: skatt × åsikt</t>
+  </si>
+  <si>
+    <t>Variabler: ålder × utbildning</t>
+  </si>
+  <si>
+    <t>Variabler: utbildning × tidningsläsning × politisk kunskap</t>
+  </si>
+  <si>
+    <t>Variabler: ålder × utbildning × husägare</t>
+  </si>
+  <si>
+    <t>Exempelvis, 2% syftar på hur många unga med grundskoleutbildning som är husägare. Notera att tabellen inte summerar till 100% eftersom vi har tagit bort de som inte är husägare.</t>
+  </si>
+  <si>
+    <t>Exempelvis, 15% syftar på hur många unga som har grundskoleutbildning.</t>
+  </si>
+  <si>
+    <t>Tidning</t>
+  </si>
+  <si>
+    <t>Svenska Dagbladet</t>
+  </si>
+  <si>
+    <t>Göteborgs-Posten</t>
+  </si>
+  <si>
+    <t>Nya Wermlands-Tidningen</t>
+  </si>
+  <si>
+    <t>Dalarnas Tidningar</t>
+  </si>
+  <si>
+    <t>Östgöta Correspondenten</t>
+  </si>
+  <si>
+    <t>TS-upplaga</t>
+  </si>
+  <si>
+    <t>Variabler: tidning × upplaga</t>
+  </si>
+  <si>
+    <t>Det är alltså tre variabler, där 44% syftar på nivån på politisk kunskap bland de med låg utbildning och lite tidningsläsning.</t>
+  </si>
+  <si>
+    <t>Apple iPhone</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy</t>
+  </si>
+  <si>
+    <t>Annan</t>
+  </si>
+  <si>
+    <t>Variabler: telefonmärke</t>
+  </si>
+  <si>
+    <t>1 variabel - stapeldiagram</t>
+  </si>
+  <si>
+    <t>2 variabler - grupperat stapeldiagram</t>
+  </si>
+  <si>
+    <t>3 variabler - grupperat stapeldiagram</t>
+  </si>
+  <si>
+    <t>2 variabler - liggande stapeldiagram</t>
+  </si>
+  <si>
+    <t>3 variabler - linjediagram för interaktion</t>
+  </si>
+  <si>
+    <t>2 variabler - linjediagram för tidsserie</t>
+  </si>
+  <si>
+    <t>1 variabel - pajdiagram</t>
+  </si>
+  <si>
+    <t>Liggande stapeldiagram är lämpliga för Likert-skalor. Se till att sortera från exempelvis högsta till lägsta värdet. I det här fallet är skatterna sorterade efter "mycket dålig idé". Fruktskatt kommer därmed högst upp eftersom flest tycker det är en mycket dålig idé.</t>
+  </si>
+  <si>
+    <t>I stället för 5 variabelvärden (som ovan), så kan man göra som här, att bara använda 3 variabelvärden. Det kan bli lite mer lättläst, men det beror på vad du vill kommunicera.</t>
+  </si>
+  <si>
+    <t>Liggande stapeldiagram är också lämpliga för topplistor av olika slag. Se till att texten visas horisontellt så att läsaren slipper vrida på huvudet för att läsa. Använd också tusental, miljontal och så vidare för att göra den kompakt.</t>
+  </si>
+  <si>
+    <t>Om du använder procent är det viktigt att du skriver basen för procenttalen (det totala antalet, 77, i det här fallet) så att läsaren vet vad procenten är andelen av. Tänk på att bara använda pajdiagram när det är få variabelvärden (här är det 3 variabelvärden).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +204,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,11 +240,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -140,8 +340,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Anteckning" xfId="1" builtinId="10"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -192,16 +427,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE" b="1"/>
-              <a:t>Studenternas utbildning och ålder</a:t>
+              <a:t>Telefoner</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="sv-SE" b="1"/>
-            </a:br>
             <a:r>
-              <a:rPr lang="sv-SE" sz="1000" b="0"/>
-              <a:t>Procent</a:t>
+              <a:rPr lang="sv-SE" b="1" baseline="0"/>
+              <a:t> bland studenter</a:t>
             </a:r>
-            <a:endParaRPr lang="sv-SE" b="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1000" b="0" baseline="0"/>
+              <a:t>Procent (n = 77)</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="1000" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -209,8 +450,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.4034558180227445E-2"/>
-          <c:y val="2.3148148148148147E-2"/>
+          <c:x val="4.4685739430750673E-2"/>
+          <c:y val="2.2518017320452194E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -249,41 +490,197 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7361329833770772E-2"/>
-          <c:y val="0.18917036285086108"/>
-          <c:w val="0.9020831146106737"/>
-          <c:h val="0.67201385138116398"/>
+          <c:x val="2.9208131371385521E-2"/>
+          <c:y val="0.14770224069948895"/>
+          <c:w val="0.92961523332022122"/>
+          <c:h val="0.83046565094643054"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unga</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C1E7-4AD8-9151-8FA20A02DF58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C1E7-4AD8-9151-8FA20A02DF58}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15227469129032972"/>
+                  <c:y val="6.2424478309032666E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.30640668523676878"/>
+                      <c:h val="0.23288973384030418"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C1E7-4AD8-9151-8FA20A02DF58}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.35468895078922935"/>
+                      <c:h val="0.19866920152091255"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C1E7-4AD8-9151-8FA20A02DF58}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -298,11 +695,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -313,52 +708,48 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$A$2:$A$4</c:f>
+              <c:f>Paj!$A$4:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Grundskola</c:v>
+                  <c:v>Apple iPhone</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gymnasie</c:v>
+                  <c:v>Samsung Galaxy</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Högskola</c:v>
+                  <c:v>Annan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$2:$B$4</c:f>
+              <c:f>Paj!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -366,45 +757,229 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFB2-49F6-82E9-430FBF7F675B}"/>
+              <c16:uniqueId val="{00000000-C1E7-4AD8-9151-8FA20A02DF58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1"/>
+              <a:t>Personer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1" baseline="0"/>
+              <a:t> med hög politisk kunskap</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1000" baseline="0"/>
+              <a:t>Procent</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6812335958005225E-2"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1856805873949307E-2"/>
+          <c:y val="0.2949074074074074"/>
+          <c:w val="0.87178039270703644"/>
+          <c:h val="0.60333333333333339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$C$1</c:f>
+              <c:f>Linje!$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mellan</c:v>
+                  <c:v>Lite tidningsläsning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
+            <a:ln w="25400"/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5956-492D-B146-964184FE3D3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5956-492D-B146-964184FE3D3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -412,27 +987,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -442,90 +996,110 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$A$2:$A$4</c:f>
+              <c:f>Linje!$A$39:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Grundskola</c:v>
+                  <c:v>Låg utbildning</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gymnasie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Högskola</c:v>
+                  <c:v>Hög utbildning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 2 variabler'!$C$2:$C$4</c:f>
+              <c:f>Linje!$B$39:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFB2-49F6-82E9-430FBF7F675B}"/>
+              <c16:uniqueId val="{00000001-5956-492D-B146-964184FE3D3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$D$1</c:f>
+              <c:f>Linje!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gamla</c:v>
+                  <c:v>Mycket tidningsläsning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
+            <a:ln w="25400"/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5956-492D-B146-964184FE3D3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{242EA04B-4575-4B85-9335-FA3A0F713F07}" type="SERIESNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[SERIENAMN]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="sv-SE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5956-492D-B146-964184FE3D3F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -533,92 +1107,53 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
+            <c:showSerName val="1"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$A$2:$A$4</c:f>
+              <c:f>Linje!$A$39:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Grundskola</c:v>
+                  <c:v>Låg utbildning</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Gymnasie</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Högskola</c:v>
+                  <c:v>Hög utbildning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 2 variabler'!$D$2:$D$4</c:f>
+              <c:f>Linje!$C$39:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFB2-49F6-82E9-430FBF7F675B}"/>
+              <c16:uniqueId val="{00000004-5956-492D-B146-964184FE3D3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -630,13 +1165,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1171389391"/>
-        <c:axId val="1171377327"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="329150608"/>
+        <c:axId val="329141040"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1171389391"/>
+        <c:axId val="329150608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +1213,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1171377327"/>
+        <c:crossAx val="329141040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1171377327"/>
+        <c:axId val="329141040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,9 +1272,10 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1171389391"/>
+        <c:crossAx val="329150608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -750,47 +1285,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.33055752405949257"/>
-          <c:y val="0.93661390933516253"/>
-          <c:w val="0.33888495188101486"/>
-          <c:h val="6.3386090664837511E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -866,7 +1360,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE" b="1"/>
-              <a:t>Studenternas ålder och utbildning</a:t>
+              <a:t>Medborgarnas utbildningsnivå</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="sv-SE" b="1"/>
@@ -938,11 +1432,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$A$2</c:f>
+              <c:f>Stapel!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Grundskola</c:v>
+                  <c:v>Unga</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1015,35 +1509,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$1:$D$1</c:f>
+              <c:f>Stapel!$A$23:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Unga</c:v>
+                  <c:v>Grundskola</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mellan</c:v>
+                  <c:v>Gymnasie</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gamla</c:v>
+                  <c:v>Högskola</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$2:$D$2</c:f>
+              <c:f>Stapel!$B$23:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,137 +1549,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$A$3</c:f>
+              <c:f>Stapel!$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Gymnasie</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1">
-                        <a:lumMod val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Unga</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mellan</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Gamla</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFB2-49F6-82E9-430FBF7F675B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Högskola</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1258,32 +1630,32 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$1:$D$1</c:f>
+              <c:f>Stapel!$A$23:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Unga</c:v>
+                  <c:v>Grundskola</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mellan</c:v>
+                  <c:v>Gymnasie</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gamla</c:v>
+                  <c:v>Högskola</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 2 variabler'!$B$4:$D$4</c:f>
+              <c:f>Stapel!$C$23:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -1527,6 +1899,1695 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1"/>
+              <a:t>Medborgarnas utbildningsnivå</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="sv-SE" b="1"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1000" b="0"/>
+              <a:t>Procent</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.4034558180227445E-2"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7361329833770772E-2"/>
+          <c:y val="0.18917036285086108"/>
+          <c:w val="0.9020831146106737"/>
+          <c:h val="0.67201385138116398"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stapel!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grundskola</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$23:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFB2-49F6-82E9-430FBF7F675B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stapel!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gymnasie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$24:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFB2-49F6-82E9-430FBF7F675B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stapel!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Högskola</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$B$22:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$25:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFB2-49F6-82E9-430FBF7F675B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1171389391"/>
+        <c:axId val="1171377327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1171389391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171377327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1171377327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171389391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33055752405949257"/>
+          <c:y val="0.93661390933516253"/>
+          <c:w val="0.33888495188101486"/>
+          <c:h val="6.3386090664837511E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1"/>
+              <a:t>Husägare</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1000"/>
+              <a:t>Procent</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.4166666666666649E-2"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stapel!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grundskola</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$B$47:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$48:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9861-4D12-8C78-1AFEB39D97FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stapel!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gymnasie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$B$47:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$49:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9861-4D12-8C78-1AFEB39D97FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stapel!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Högskola</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$B$47:$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Unga</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gamla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$50:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9861-4D12-8C78-1AFEB39D97FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="872336288"/>
+        <c:axId val="886501504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="872336288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="886501504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="886501504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872336288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1"/>
+              <a:t>Telefoner bland</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1" baseline="0"/>
+              <a:t> studenter</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" b="1"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1000"/>
+              <a:t>Antal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.9145669291338568E-2"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Stapel!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Apple iPhone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Samsung Galaxy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Annan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Stapel!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4490-4BFC-9A23-A277918504EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1317913088"/>
+        <c:axId val="1401672432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1317913088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1401672432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1401672432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1317913088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
               <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1607,7 +3668,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$B$1</c:f>
+              <c:f>'Liggande stapel'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1687,7 +3748,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$2:$A$6</c:f>
+              <c:f>'Liggande stapel'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1710,7 +3771,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$B$2:$B$6</c:f>
+              <c:f>'Liggande stapel'!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1743,7 +3804,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$C$1</c:f>
+              <c:f>'Liggande stapel'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1824,7 +3885,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$2:$A$6</c:f>
+              <c:f>'Liggande stapel'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1847,7 +3908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$C$2:$C$6</c:f>
+              <c:f>'Liggande stapel'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1880,7 +3941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$D$1</c:f>
+              <c:f>'Liggande stapel'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1960,7 +4021,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$2:$A$6</c:f>
+              <c:f>'Liggande stapel'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1983,7 +4044,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$D$2:$D$6</c:f>
+              <c:f>'Liggande stapel'!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2016,7 +4077,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$E$1</c:f>
+              <c:f>'Liggande stapel'!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2097,7 +4158,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$2:$A$6</c:f>
+              <c:f>'Liggande stapel'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2120,7 +4181,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$E$2:$E$6</c:f>
+              <c:f>'Liggande stapel'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2153,7 +4214,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$F$1</c:f>
+              <c:f>'Liggande stapel'!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2233,7 +4294,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$2:$A$6</c:f>
+              <c:f>'Liggande stapel'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2256,7 +4317,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$F$2:$F$6</c:f>
+              <c:f>'Liggande stapel'!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2494,7 +4555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -2601,7 +4662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$B$24</c:f>
+              <c:f>'Liggande stapel'!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2676,7 +4737,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$25:$A$29</c:f>
+              <c:f>'Liggande stapel'!$A$28:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2699,7 +4760,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$B$25:$B$29</c:f>
+              <c:f>'Liggande stapel'!$B$28:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2732,7 +4793,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$C$24</c:f>
+              <c:f>'Liggande stapel'!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2807,7 +4868,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$25:$A$29</c:f>
+              <c:f>'Liggande stapel'!$A$28:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2830,7 +4891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$C$25:$C$29</c:f>
+              <c:f>'Liggande stapel'!$C$28:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2863,7 +4924,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$D$24</c:f>
+              <c:f>'Liggande stapel'!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2938,7 +4999,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Liggande stapeldiagram Likert'!$A$25:$A$29</c:f>
+              <c:f>'Liggande stapel'!$A$28:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2961,7 +5022,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Liggande stapeldiagram Likert'!$D$25:$D$29</c:f>
+              <c:f>'Liggande stapel'!$D$28:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3198,7 +5259,360 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tidningsupplaga</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>Tusental</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.9094605431617059E-2"/>
+          <c:y val="3.2258064516129031E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Liggande stapel'!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TS-upplaga</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Liggande stapel'!$A$51:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Svenska Dagbladet</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Göteborgs-Posten</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Svenska Dagbladet</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nya Wermlands-Tidningen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dalarnas Tidningar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Östgöta Correspondenten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Liggande stapel'!$B$51:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>164900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8C1-4A7F-9F84-FDB6A539293D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="989728832"/>
+        <c:axId val="1307804288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="989728832"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1307804288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1307804288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989728832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -3304,11 +5718,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linjediagram tidsserie'!$B$1</c:f>
+              <c:f>Linje!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Antal</c:v>
+                  <c:v>Antal studenter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3668,7 +6082,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Linjediagram tidsserie'!$A$2:$A$28</c:f>
+              <c:f>Linje!$A$5:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3758,7 +6172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Linjediagram tidsserie'!$B$2:$B$28</c:f>
+              <c:f>Linje!$B$5:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3984,551 +6398,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="sv-SE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sv-SE" b="1"/>
-              <a:t>Personer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sv-SE" b="1" baseline="0"/>
-              <a:t> med hög politisk kunskap</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sv-SE" sz="1000" baseline="0"/>
-              <a:t>Procent</a:t>
-            </a:r>
-            <a:endParaRPr lang="sv-SE" sz="1000"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.6812335958005225E-2"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.1856805873949307E-2"/>
-          <c:y val="0.2949074074074074"/>
-          <c:w val="0.70548496627794943"/>
-          <c:h val="0.60333333333333339"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linjediagram 3 variabler'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lite tidningsläsning</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DE08-4B92-A43E-98D3D6E6C04B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Linjediagram 3 variabler'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Låg utbildning</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Hög utbildning</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Linjediagram 3 variabler'!$B$2:$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DE08-4B92-A43E-98D3D6E6C04B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Linjediagram 3 variabler'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mycket tidningsläsning</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DE08-4B92-A43E-98D3D6E6C04B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr algn="l">
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="sv-SE"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <a:prstGeom prst="rect">
-                      <a:avLst/>
-                    </a:prstGeom>
-                  </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DE08-4B92-A43E-98D3D6E6C04B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Linjediagram 3 variabler'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Låg utbildning</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Hög utbildning</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Linjediagram 3 variabler'!$C$2:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DE08-4B92-A43E-98D3D6E6C04B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="329150608"/>
-        <c:axId val="329141040"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="329150608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="329141040"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="329141040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="329150608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4767,8 +6636,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4825,7 +6854,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4876,6 +6905,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4886,12 +6922,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4929,7 +6972,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4972,22 +7015,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5092,8 +7136,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5225,19 +7269,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5774,7 +7819,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5978,23 +8023,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6099,8 +8143,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6232,20 +8276,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6279,7 +8322,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6483,23 +8526,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6604,8 +8646,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6737,20 +8779,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6784,7 +8825,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6892,11 +8933,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6907,11 +8943,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -6943,6 +8974,2034 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -7303,20 +11362,216 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097F0D43-E706-4345-8AFF-1294BCAAC9FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>207962</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>26987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>512762</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EDC32A-E0B3-4383-838D-512E52163C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F349DA-8105-426F-B653-17EF936DED84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185736</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>141286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7334,20 +11589,141 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>227011</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>93661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120649</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCDCF53-18DF-4CD5-9056-881CC21C73D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139699</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -7364,143 +11740,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>242886</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagram 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>223836</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7575,23 +11816,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7627,23 +11851,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7795,73 +12002,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF72C423-0BA5-49CE-8862-14C52F38E793}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:3" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3">
-        <v>37</v>
-      </c>
+    <row r="8" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3">
-        <v>24</v>
-      </c>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>55</v>
-      </c>
-      <c r="C4" s="3">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7869,228 +12099,221 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:2" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="25" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.5">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2</v>
+      </c>
+      <c r="C48" s="3">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3">
-        <v>21</v>
-      </c>
-      <c r="C2" s="3">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
-        <v>15</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="3">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
+      <c r="C50" s="3">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7</v>
-      </c>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3">
-        <v>15</v>
-      </c>
+    <row r="52" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>10</v>
-      </c>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>23</v>
-      </c>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3">
-        <v>75</v>
-      </c>
-      <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3">
-        <v>78</v>
-      </c>
-      <c r="C28" s="3">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="3">
-        <v>80</v>
-      </c>
-      <c r="C29" s="3">
-        <v>10</v>
-      </c>
-      <c r="D29" s="3">
-        <v>10</v>
-      </c>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
   </sheetData>
-  <sortState ref="B25:D29">
-    <sortCondition ref="B25:B29"/>
-  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A52:D56"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8098,240 +12321,381 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1990</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
         <v>35</v>
       </c>
+      <c r="C8" s="3">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1991</v>
-      </c>
-      <c r="B3" s="3">
-        <v>44</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1992</v>
-      </c>
-      <c r="B4" s="3">
-        <v>56</v>
-      </c>
+    <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1993</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="3">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3">
+        <v>80</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+    </row>
+    <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.5">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="3">
+        <v>164900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="3">
+        <v>126700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="3">
+        <v>63100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="3">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="3">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="B59" s="11"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1994</v>
-      </c>
-      <c r="B6" s="3">
-        <v>53</v>
-      </c>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="12"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1995</v>
-      </c>
-      <c r="B7" s="3">
-        <v>40</v>
-      </c>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="12"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1996</v>
-      </c>
-      <c r="B8" s="3">
-        <v>49</v>
-      </c>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="12"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1997</v>
-      </c>
-      <c r="B9" s="3">
-        <v>47</v>
-      </c>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="12"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1998</v>
-      </c>
-      <c r="B10" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1999</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B13" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2002</v>
-      </c>
-      <c r="B14" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2003</v>
-      </c>
-      <c r="B15" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2004</v>
-      </c>
-      <c r="B16" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2005</v>
-      </c>
-      <c r="B17" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2007</v>
-      </c>
-      <c r="B19" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2008</v>
-      </c>
-      <c r="B20" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2009</v>
-      </c>
-      <c r="B21" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B22" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B23" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B25" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B26" s="3">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B27" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2016</v>
-      </c>
-      <c r="B28" s="3">
-        <v>66</v>
-      </c>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
     </row>
   </sheetData>
+  <sortState ref="B28:D32">
+    <sortCondition ref="B21:B26"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A11:C14"/>
+    <mergeCell ref="A35:C37"/>
+    <mergeCell ref="A59:B64"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8339,56 +12703,316 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:2" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B5" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1992</v>
+      </c>
+      <c r="B7" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B9" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B11" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B12" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B13" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B18" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B20" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B22" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B23" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B29" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B30" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25" x14ac:dyDescent="0.5">
+      <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
         <v>44</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C39" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="3">
         <v>33</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C40" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A42:C44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/filer/diagram-mall.xlsx
+++ b/filer/diagram-mall.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542918ED-1675-40FC-A09D-BBBEB89B95D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AE012F-DB88-43D0-A483-626F0675B177}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paj" sheetId="5" r:id="rId1"/>
@@ -344,19 +344,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -369,9 +372,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,7 +436,17 @@
           </a:p>
           <a:p>
             <a:pPr algn="l">
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE" sz="1000" b="0" baseline="0"/>
@@ -462,26 +472,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -555,13 +545,18 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-81A5-460F-B459-7459F3004CD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.15227469129032972"/>
+                  <c:x val="-0.12627654830054327"/>
                   <c:y val="6.2424478309032666E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -605,14 +600,10 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.30640668523676878"/>
+                      <c:w val="0.35840297121634168"/>
                       <c:h val="0.23288973384030418"/>
                     </c:manualLayout>
                   </c15:layout>
@@ -664,20 +655,77 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.35468895078922935"/>
-                      <c:h val="0.19866920152091255"/>
+                      <c:w val="0.30588672237697312"/>
+                      <c:h val="0.16887847669231459"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C1E7-4AD8-9151-8FA20A02DF58}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10770659238625808"/>
+                  <c:y val="0.15304182509505704"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.22376973073351902"/>
+                      <c:h val="0.20532319391634982"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-81A5-460F-B459-7459F3004CD9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -722,10 +770,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
               </c:ext>
             </c:extLst>
@@ -1367,7 +1411,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="sv-SE" sz="1000" b="0"/>
-              <a:t>Procent</a:t>
+              <a:t>Procent (n = 1 516)</a:t>
             </a:r>
             <a:endParaRPr lang="sv-SE" b="0"/>
           </a:p>
@@ -1920,7 +1964,7 @@
             </a:br>
             <a:r>
               <a:rPr lang="sv-SE" sz="1000" b="0"/>
-              <a:t>Procent</a:t>
+              <a:t>Procent (n = 1 516)</a:t>
             </a:r>
             <a:endParaRPr lang="sv-SE" b="0"/>
           </a:p>
@@ -2460,9 +2504,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33055752405949257"/>
+          <c:x val="0.23889085739282589"/>
           <c:y val="0.93661390933516253"/>
-          <c:w val="0.33888495188101486"/>
+          <c:w val="0.58610717410323709"/>
           <c:h val="6.3386090664837511E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2579,7 +2623,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE" sz="1000"/>
-              <a:t>Procent</a:t>
+              <a:t>Procent (n = 1 516)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6756,48 +6800,8 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6854,7 +6858,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6905,13 +6909,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -6922,19 +6919,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6972,7 +6962,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7015,23 +7005,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7136,8 +7125,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7269,20 +7258,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8825,7 +8813,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9029,22 +9017,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9149,8 +9138,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9282,19 +9271,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9833,7 +9823,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10338,511 +10328,6 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12047,46 +11532,46 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12207,18 +11692,18 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="44" spans="1:3" ht="25" x14ac:dyDescent="0.5">
       <c r="A44" s="5" t="s">
@@ -12278,36 +11763,36 @@
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12324,7 +11809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12464,26 +11951,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="25" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
@@ -12579,21 +12066,21 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.5">
       <c r="A46" s="5" t="s">
@@ -12662,30 +12149,30 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="7"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="7"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="15"/>
     </row>
   </sheetData>
   <sortState ref="B28:D32">
@@ -12991,21 +12478,21 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
